--- a/ReinforcementLearning/算法比较.xlsx
+++ b/ReinforcementLearning/算法比较.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>模型</t>
   </si>
@@ -75,7 +75,7 @@
     <t>DQN</t>
   </si>
   <si>
-    <t>估计网络</t>
+    <t>评价网络</t>
   </si>
   <si>
     <t>连续状态、离散动作</t>
@@ -84,19 +84,19 @@
     <t>q(s, a) = r + 0.9 * q_(s_, max_a)</t>
   </si>
   <si>
-    <t>记忆库记录，估计网络单步更新</t>
+    <t>记忆库记录，单步更新</t>
   </si>
   <si>
     <t>本质用神经网络代替Q表的Q-learning算法，为提高网络学习效率，采用记忆库保存记忆，采取估计网络和现实网络错开更新方法。可用于连续动作决策。</t>
   </si>
   <si>
-    <t>现实网络</t>
+    <t>目标网络</t>
   </si>
   <si>
     <t>q_ = q</t>
   </si>
   <si>
-    <t>隔一段时间更新为估计网络的参数</t>
+    <t>隔一段时间更新为评价网络的参数</t>
   </si>
   <si>
     <t>PG</t>
@@ -108,7 +108,7 @@
     <t>连续状态</t>
   </si>
   <si>
-    <t>动作概率</t>
+    <t>离散动作概率</t>
   </si>
   <si>
     <t>概率抽样</t>
@@ -121,10 +121,16 @@
     <t>回合更新</t>
   </si>
   <si>
+    <t>让网络根据状态直接得出最佳动作。</t>
+  </si>
+  <si>
     <t>AC</t>
   </si>
   <si>
     <t>l = -log(act_prob) * td_error</t>
+  </si>
+  <si>
+    <t>A负责根据状态选动作，C负责计算状态和动作所对应的Q值，指导A训练。</t>
   </si>
   <si>
     <t>评判网络</t>
@@ -140,10 +146,43 @@
 l = td_error^2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>DDPG</t>
+  </si>
+  <si>
+    <t>动作评价网络</t>
+  </si>
+  <si>
+    <t>连续动作</t>
+  </si>
+  <si>
+    <t>最佳动作</t>
+  </si>
+  <si>
+    <t>l = -c(s, a(s))</t>
+  </si>
+  <si>
+    <t>AC和DQN结合，训练四个网络，使用记忆库存储，在训练选动作时添加高斯分布噪声以扩大尝试范围。</t>
+  </si>
+  <si>
+    <t>动作目标网络</t>
+  </si>
+  <si>
+    <t>a_ = a</t>
+  </si>
+  <si>
+    <t>评判评价网络</t>
+  </si>
+  <si>
+    <t>连续状态、连续动作</t>
+  </si>
+  <si>
+    <t>l = mse(c(s), r + c_(s_) * 0.9)</t>
+  </si>
+  <si>
+    <t>评判目标网络</t>
+  </si>
+  <si>
+    <t>c_ = c</t>
   </si>
   <si>
     <t>A3C</t>
@@ -155,8 +194,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -176,6 +215,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -184,9 +230,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,40 +329,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,71 +350,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -321,25 +360,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,157 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +551,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,17 +631,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,197 +651,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,14 +801,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1120,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="7"/>
@@ -1134,53 +1176,54 @@
     <col min="4" max="4" width="21.1694915254237" customWidth="1"/>
     <col min="5" max="5" width="10.8389830508475" customWidth="1"/>
     <col min="6" max="6" width="26.7966101694915" customWidth="1"/>
-    <col min="7" max="7" width="17.4322033898305" customWidth="1"/>
+    <col min="7" max="7" width="20.5508474576271" customWidth="1"/>
     <col min="8" max="8" width="52.4152542372881" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="27.2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1188,48 +1231,48 @@
       </c>
     </row>
     <row r="3" ht="27.9" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="26.45" spans="1:8">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1240,14 +1283,14 @@
       </c>
     </row>
     <row r="5" ht="26.45" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1255,34 +1298,37 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="27.9" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" ht="27.9" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" ht="24" customHeight="1" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1291,57 +1337,142 @@
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="27.9" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>36</v>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" ht="26.45" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
+    <row r="12" ht="26.45" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2"/>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>42</v>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="16">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
